--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A012EE68-B13A-4B87-ADB5-1B60D22B1997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE02F857-D660-4760-8E73-79794048CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-60" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -218,23 +218,7 @@
     <t>Wider Vision</t>
   </si>
   <si>
-    <t>魔力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础魔力</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>魔力倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度提升</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -340,6 +324,29 @@
   </si>
   <si>
     <t>视野缩放+24%</t>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>改写邻域(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野缩放+25%</t>
+  </si>
+  <si>
+    <t>墨水消耗倍率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度倍率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -728,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J16"/>
+      <selection activeCell="A17" sqref="A17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,22 +755,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>7</v>
@@ -796,7 +803,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -824,7 +831,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -852,10 +859,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -880,7 +887,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -908,7 +915,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -936,7 +943,7 @@
         <v>1006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -964,10 +971,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
@@ -992,7 +999,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1020,7 +1027,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1048,7 +1055,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1076,13 +1083,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1102,13 +1109,13 @@
         <v>2002</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1128,13 +1135,13 @@
         <v>3001</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1154,13 +1161,13 @@
         <v>3002</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1172,6 +1179,32 @@
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1194,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1540,13 +1573,13 @@
         <v>2001</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1566,13 +1599,13 @@
         <v>2002</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1592,13 +1625,13 @@
         <v>3001</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1618,13 +1651,13 @@
         <v>3002</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1636,6 +1669,32 @@
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE02F857-D660-4760-8E73-79794048CD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C803B0C-8335-4A42-934F-2A902AF523C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-60" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -158,55 +158,28 @@
     <t>英文</t>
   </si>
   <si>
-    <t>Power Guidance</t>
-  </si>
-  <si>
     <t>Character's ATK Increase</t>
   </si>
   <si>
-    <t>Light Speed Gear</t>
-  </si>
-  <si>
     <t>Move Faster</t>
   </si>
   <si>
-    <t>Spell Book</t>
-  </si>
-  <si>
     <t>Skill Have Additional Times For Use</t>
   </si>
   <si>
-    <t>Magic Progression Manual</t>
-  </si>
-  <si>
     <t>Skill Cooldown Decrease 1 Sec</t>
   </si>
   <si>
-    <t>Introduction to Magic Shields</t>
-  </si>
-  <si>
     <t>Invincible Time Longer After Damage</t>
   </si>
   <si>
-    <t>The Art of Concentration</t>
-  </si>
-  <si>
     <t>Skills Take More Damage</t>
   </si>
   <si>
-    <t>The Art of Spotlight</t>
-  </si>
-  <si>
     <t>Weapon Take More Damage</t>
   </si>
   <si>
-    <t>Instant Gear</t>
-  </si>
-  <si>
     <t>Reloading Faster</t>
-  </si>
-  <si>
-    <t>Continuity Gear</t>
   </si>
   <si>
     <t>Kills Offer More Times</t>
@@ -326,10 +299,6 @@
     <t>视野缩放+24%</t>
   </si>
   <si>
-    <t>基础</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>改写邻域(主)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -346,6 +315,126 @@
   </si>
   <si>
     <t>基础速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野缩放+26%</t>
+  </si>
+  <si>
+    <t>视野缩放+27%</t>
+  </si>
+  <si>
+    <t>视野缩放+28%</t>
+  </si>
+  <si>
+    <t>视野缩放+29%</t>
+  </si>
+  <si>
+    <t>视野缩放+30%</t>
+  </si>
+  <si>
+    <t>视野缩放+31%</t>
+  </si>
+  <si>
+    <t>视野缩放+32%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击倍率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水上限</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量获取</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取倍率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量倍率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使魔加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>邻域(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水添加</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭改写</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具技能无敌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有改写时使魔加速</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬时是否改写</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加墨时加血</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加墨时加能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔眩晕</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔可回收</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野缩放+33%</t>
+  </si>
+  <si>
+    <t>墨水消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬状态</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -445,6 +534,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:J17"/>
+      <selection activeCell="A21" sqref="A21:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -751,43 +841,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -803,7 +893,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -831,7 +921,7 @@
         <v>1002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -859,7 +949,7 @@
         <v>1003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -887,7 +977,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -915,10 +1005,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -943,10 +1033,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -971,10 +1061,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
@@ -999,7 +1089,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1027,7 +1117,7 @@
         <v>1009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1055,7 +1145,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1080,16 +1170,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>2001</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1100,22 +1190,24 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>2002</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1126,22 +1218,24 @@
       <c r="G14" s="3">
         <v>3</v>
       </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1152,59 +1246,552 @@
       <c r="G15" s="3">
         <v>3</v>
       </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>3001</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>40</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>3002</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>40</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>3004</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>3005</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>40</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>3006</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>40</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>3007</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>3008</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>3009</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>3003</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>40</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>3010</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>40</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1227,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1241,43 +1828,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="9"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1292,8 +1879,8 @@
       <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -1313,15 +1900,15 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1341,15 +1928,15 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -1369,15 +1956,15 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -1397,15 +1984,15 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>41</v>
+      <c r="B7" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -1425,15 +2012,15 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -1453,15 +2040,15 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+      <c r="B9" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1481,15 +2068,15 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -1509,15 +2096,15 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>49</v>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -1537,7 +2124,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1545,7 +2132,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1565,21 +2152,21 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>2001</v>
+        <v>1011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1596,16 +2183,16 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>2002</v>
+        <v>1012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1622,16 +2209,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>3001</v>
+        <v>1013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1648,16 +2235,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>3002</v>
+        <v>1014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -1674,27 +2261,505 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>3003</v>
+        <v>1015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>40</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="3">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>40</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>40</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>40</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>40</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>3001</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>40</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>3002</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>40</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>3003</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>40</v>
+      </c>
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>3004</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>40</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>3005</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>40</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>3006</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>40</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>3007</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>40</v>
+      </c>
+      <c r="G32" s="3">
+        <v>3</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>3008</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="3">
+        <v>5</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>40</v>
+      </c>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>3009</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>40</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>3010</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>40</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="J35" s="6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C803B0C-8335-4A42-934F-2A902AF523C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5CAA73-2CD6-4ADC-865F-7803DB3676E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-60" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>ID</t>
   </si>
@@ -236,37 +236,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">显示稀有度
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Rare/Common</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>升级名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -435,6 +409,22 @@
   </si>
   <si>
     <t>吞噬状态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔回收</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始能量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大能量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -837,6 +827,8 @@
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="47.875" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -845,22 +837,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>7</v>
@@ -893,19 +885,19 @@
         <v>1001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -921,19 +913,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3">
         <v>3</v>
@@ -949,19 +941,19 @@
         <v>1003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -977,19 +969,19 @@
         <v>1004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F6" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -1005,19 +997,19 @@
         <v>1005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F7" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
@@ -1033,19 +1025,19 @@
         <v>1006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1061,19 +1053,19 @@
         <v>1007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -1089,19 +1081,19 @@
         <v>1008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -1117,19 +1109,19 @@
         <v>1009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -1145,19 +1137,19 @@
         <v>1010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3">
         <v>3</v>
@@ -1173,19 +1165,19 @@
         <v>1011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -1204,16 +1196,16 @@
         <v>45</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3">
         <v>3</v>
@@ -1238,10 +1230,10 @@
         <v>51</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1257,19 +1249,19 @@
         <v>1014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -1285,19 +1277,19 @@
         <v>1015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G17" s="3">
         <v>3</v>
@@ -1308,7 +1300,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1316,19 +1308,19 @@
         <v>1016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G18" s="3">
         <v>3</v>
@@ -1344,19 +1336,19 @@
         <v>1017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G19" s="3">
         <v>3</v>
@@ -1372,19 +1364,19 @@
         <v>1018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
@@ -1400,19 +1392,19 @@
         <v>2001</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
@@ -1428,19 +1420,19 @@
         <v>2002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3">
         <v>3</v>
@@ -1456,19 +1448,19 @@
         <v>2003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3">
         <v>3</v>
@@ -1484,19 +1476,19 @@
         <v>2004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G24" s="3">
         <v>3</v>
@@ -1512,19 +1504,19 @@
         <v>2005</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G25" s="3">
         <v>3</v>
@@ -1543,16 +1535,16 @@
         <v>53</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3">
         <v>3</v>
@@ -1569,16 +1561,16 @@
         <v>54</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
         <v>3</v>
@@ -1595,16 +1587,16 @@
         <v>55</v>
       </c>
       <c r="C28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E28" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G28" s="3">
         <v>3</v>
@@ -1621,16 +1613,16 @@
         <v>48</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G29" s="3">
         <v>3</v>
@@ -1644,19 +1636,19 @@
         <v>3005</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G30" s="3">
         <v>3</v>
@@ -1670,19 +1662,19 @@
         <v>3006</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
@@ -1696,19 +1688,19 @@
         <v>3007</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G32" s="3">
         <v>3</v>
@@ -1722,19 +1714,19 @@
         <v>3008</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
@@ -1748,19 +1740,19 @@
         <v>3009</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G34" s="3">
         <v>3</v>
@@ -1774,24 +1766,50 @@
         <v>3010</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F35" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G35" s="3">
         <v>3</v>
       </c>
       <c r="J35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>3011</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="3">
+        <v>80</v>
+      </c>
+      <c r="F36" s="3">
+        <v>80</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1814,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1880,7 +1898,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -2048,7 +2066,7 @@
         <v>1007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -2076,7 +2094,7 @@
         <v>1008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2238,13 +2256,13 @@
         <v>1014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2264,13 +2282,13 @@
         <v>1015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2290,13 +2308,13 @@
         <v>1016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2316,13 +2334,13 @@
         <v>1017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2342,13 +2360,13 @@
         <v>1018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2368,13 +2386,13 @@
         <v>2001</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2396,13 +2414,13 @@
         <v>2002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2424,13 +2442,13 @@
         <v>2003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2452,13 +2470,13 @@
         <v>2004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2480,13 +2498,13 @@
         <v>2005</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2592,7 +2610,7 @@
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2612,13 +2630,13 @@
         <v>3005</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2638,13 +2656,13 @@
         <v>3006</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2664,13 +2682,13 @@
         <v>3007</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2690,13 +2708,13 @@
         <v>3008</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2716,13 +2734,13 @@
         <v>3009</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -2742,13 +2760,13 @@
         <v>3010</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2760,6 +2778,32 @@
         <v>3</v>
       </c>
       <c r="J35" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>3011</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="3">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>40</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5CAA73-2CD6-4ADC-865F-7803DB3676E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBD424-A951-49EF-846B-4354280C7FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -317,38 +317,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>攻击倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量获取</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础血量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使魔加速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>箭</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -373,26 +341,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>使用道具技能无敌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有改写时使魔加速</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>吞噬时是否改写</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>加墨时加血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加墨时加能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>伏笔眩晕</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -404,10 +356,6 @@
     <t>视野缩放+33%</t>
   </si>
   <si>
-    <t>墨水消耗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>吞噬状态</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -425,6 +373,130 @@
   </si>
   <si>
     <t>最大能量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回能(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回墨水(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水添加(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔设置(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔回收(主)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬状态(被)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔可回收(被)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏笔眩晕(被)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬时是否改写(被)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭改写(被)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加墨时加能(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>加墨时加血(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有改写时使魔加速(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用道具技能无敌(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使魔加速(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视改写(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取倍率(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量获取(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水消耗倍率(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水消耗(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>墨水上限(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击倍率(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度倍率(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础速度(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量倍率(基)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血量(基)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +890,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,16 +912,16 @@
         <v>56</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>58</v>
@@ -885,10 +957,10 @@
         <v>1001</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -913,10 +985,10 @@
         <v>1002</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -941,10 +1013,10 @@
         <v>1003</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>16</v>
@@ -969,10 +1041,10 @@
         <v>1004</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>18</v>
@@ -997,10 +1069,10 @@
         <v>1005</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -1025,10 +1097,10 @@
         <v>1006</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>22</v>
@@ -1053,10 +1125,10 @@
         <v>1007</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
@@ -1081,10 +1153,10 @@
         <v>1008</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
@@ -1109,10 +1181,10 @@
         <v>1009</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>28</v>
@@ -1137,10 +1209,10 @@
         <v>1010</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>30</v>
@@ -1165,10 +1237,10 @@
         <v>1011</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>49</v>
@@ -1193,10 +1265,10 @@
         <v>1012</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>50</v>
@@ -1221,10 +1293,10 @@
         <v>1013</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>51</v>
@@ -1249,10 +1321,10 @@
         <v>1014</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>60</v>
@@ -1277,10 +1349,10 @@
         <v>1015</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>62</v>
@@ -1308,10 +1380,10 @@
         <v>1016</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>66</v>
@@ -1336,10 +1408,10 @@
         <v>1017</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>67</v>
@@ -1364,10 +1436,10 @@
         <v>1018</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>68</v>
@@ -1392,10 +1464,10 @@
         <v>2001</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>69</v>
@@ -1420,10 +1492,10 @@
         <v>2002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>70</v>
@@ -1448,10 +1520,10 @@
         <v>2003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>71</v>
@@ -1476,10 +1548,10 @@
         <v>2004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>72</v>
@@ -1507,10 +1579,10 @@
         <v>97</v>
       </c>
       <c r="C25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3">
         <v>80</v>
@@ -1532,10 +1604,10 @@
         <v>3001</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>49</v>
@@ -1558,10 +1630,10 @@
         <v>3002</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>50</v>
@@ -1584,10 +1656,10 @@
         <v>3003</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>51</v>
@@ -1613,7 +1685,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>60</v>
@@ -1639,7 +1711,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>62</v>
@@ -1662,10 +1734,10 @@
         <v>3006</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>66</v>
@@ -1688,10 +1760,10 @@
         <v>3007</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>67</v>
@@ -1714,10 +1786,10 @@
         <v>3008</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>68</v>
@@ -1740,10 +1812,10 @@
         <v>3009</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>69</v>
@@ -1766,10 +1838,10 @@
         <v>3010</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>70</v>
@@ -1792,10 +1864,10 @@
         <v>3011</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>71</v>
@@ -2386,7 +2458,7 @@
         <v>2001</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
@@ -2414,7 +2486,7 @@
         <v>2002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
@@ -2442,7 +2514,7 @@
         <v>2003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
@@ -2470,7 +2542,7 @@
         <v>2004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
@@ -2498,13 +2570,13 @@
         <v>2005</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2656,7 +2728,7 @@
         <v>3006</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -2682,7 +2754,7 @@
         <v>3007</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
@@ -2708,7 +2780,7 @@
         <v>3008</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
@@ -2734,7 +2806,7 @@
         <v>3009</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
@@ -2760,7 +2832,7 @@
         <v>3010</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
@@ -2786,7 +2858,7 @@
         <v>3011</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBD424-A951-49EF-846B-4354280C7FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2417BEF2-F5E5-4DE4-B655-38D560625B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DBD424-A951-49EF-846B-4354280C7FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="9645" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -21,12 +15,264 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>升级名称</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>初始能量</t>
+  </si>
+  <si>
+    <t>最大能量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">获取限制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字表示几次后移除</t>
+    </r>
+  </si>
+  <si>
+    <t>武器限制</t>
+  </si>
+  <si>
+    <t>效果描述</t>
+  </si>
+  <si>
+    <t>白名单</t>
+  </si>
+  <si>
+    <t>黑名单</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>基础血量(基)</t>
+  </si>
+  <si>
+    <t>角色攻击力+2</t>
+  </si>
+  <si>
+    <t>角色攻击力提升</t>
+  </si>
+  <si>
+    <t>血量倍率(基)</t>
+  </si>
+  <si>
+    <t>移动速度+0.2k/s</t>
+  </si>
+  <si>
+    <t>移动更快</t>
+  </si>
+  <si>
+    <t>基础速度(基)</t>
+  </si>
+  <si>
+    <t>技能储存+1</t>
+  </si>
+  <si>
+    <t>技能能够额外储存一次</t>
+  </si>
+  <si>
+    <t>速度倍率(基)</t>
+  </si>
+  <si>
+    <t>技能冷却-1</t>
+  </si>
+  <si>
+    <t>技能冷却缩减1秒</t>
+  </si>
+  <si>
+    <t>基础攻击(基)</t>
+  </si>
+  <si>
+    <t>受伤后无敌+0.5s</t>
+  </si>
+  <si>
+    <t>受伤后无敌时间变长</t>
+  </si>
+  <si>
+    <t>攻击倍率(基)</t>
+  </si>
+  <si>
+    <t>技能伤害倍率+50%</t>
+  </si>
+  <si>
+    <t>技能伤害更高</t>
+  </si>
+  <si>
+    <t>墨水上限(基)</t>
+  </si>
+  <si>
+    <t>射击伤害倍率+20%</t>
+  </si>
+  <si>
+    <t>武器伤害更高</t>
+  </si>
+  <si>
+    <t>墨水消耗(基)</t>
+  </si>
+  <si>
+    <t>换弹时间*0.5</t>
+  </si>
+  <si>
+    <t>换弹时间更短</t>
+  </si>
+  <si>
+    <t>墨水消耗倍率(基)</t>
+  </si>
+  <si>
+    <t>击杀时间获取+1</t>
+  </si>
+  <si>
+    <t>击杀敌人所获得的时间增加</t>
+  </si>
+  <si>
+    <t>能量获取(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+20%</t>
+  </si>
+  <si>
+    <t>视野更广</t>
+  </si>
+  <si>
+    <t>获取倍率(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+21%</t>
+  </si>
+  <si>
+    <t>无敌(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+22%</t>
+  </si>
+  <si>
+    <t>无视改写(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+23%</t>
+  </si>
+  <si>
+    <t>使魔加速(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+24%</t>
+  </si>
+  <si>
+    <t>使用道具技能无敌(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>拥有改写时使魔加速(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+26%</t>
+  </si>
+  <si>
+    <t>加墨时加血(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+27%</t>
+  </si>
+  <si>
+    <t>加墨时加能(基)</t>
+  </si>
+  <si>
+    <t>视野缩放+28%</t>
+  </si>
+  <si>
+    <t>箭改写(被)</t>
+  </si>
+  <si>
+    <t>视野缩放+29%</t>
+  </si>
+  <si>
+    <t>吞噬时是否改写(被)</t>
+  </si>
+  <si>
+    <t>视野缩放+30%</t>
+  </si>
+  <si>
+    <t>伏笔眩晕(被)</t>
+  </si>
+  <si>
+    <t>视野缩放+31%</t>
+  </si>
+  <si>
+    <t>伏笔可回收(被)</t>
+  </si>
+  <si>
+    <t>视野缩放+32%</t>
+  </si>
+  <si>
+    <t>吞噬状态(被)</t>
+  </si>
+  <si>
+    <t>视野缩放+33%</t>
+  </si>
+  <si>
+    <t>回血(主)</t>
+  </si>
+  <si>
+    <t>回能(主)</t>
+  </si>
+  <si>
+    <t>回墨水(主)</t>
+  </si>
+  <si>
+    <t>使魔加速无视改写(主)</t>
+  </si>
+  <si>
+    <t>加速(主)</t>
+  </si>
+  <si>
+    <t>邻域(主)</t>
+  </si>
+  <si>
+    <t>箭(主)</t>
+  </si>
+  <si>
+    <t>吞噬(主)</t>
+  </si>
+  <si>
+    <t>墨水添加(主)</t>
+  </si>
+  <si>
+    <t>伏笔设置(主)</t>
+  </si>
+  <si>
+    <t>伏笔回收(主)</t>
   </si>
   <si>
     <r>
@@ -50,138 +296,66 @@
     </r>
   </si>
   <si>
-    <t>效果</t>
-  </si>
-  <si>
     <t>标签</t>
   </si>
   <si>
     <t>权重</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">获取限制
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数字表示几次后移除</t>
-    </r>
-  </si>
-  <si>
-    <t>武器限制</t>
-  </si>
-  <si>
-    <t>效果描述</t>
-  </si>
-  <si>
-    <t>白名单</t>
-  </si>
-  <si>
-    <t>黑名单</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>角色攻击力+2</t>
-  </si>
-  <si>
-    <t>角色攻击力提升</t>
-  </si>
-  <si>
-    <t>移动速度+0.2k/s</t>
-  </si>
-  <si>
-    <t>移动更快</t>
-  </si>
-  <si>
-    <t>技能储存+1</t>
-  </si>
-  <si>
-    <t>技能能够额外储存一次</t>
-  </si>
-  <si>
-    <t>技能冷却-1</t>
-  </si>
-  <si>
-    <t>技能冷却缩减1秒</t>
-  </si>
-  <si>
-    <t>受伤后无敌+0.5s</t>
-  </si>
-  <si>
-    <t>受伤后无敌时间变长</t>
-  </si>
-  <si>
-    <t>技能伤害倍率+50%</t>
-  </si>
-  <si>
-    <t>技能伤害更高</t>
-  </si>
-  <si>
-    <t>射击伤害倍率+20%</t>
-  </si>
-  <si>
-    <t>武器伤害更高</t>
-  </si>
-  <si>
-    <t>换弹时间*0.5</t>
-  </si>
-  <si>
-    <t>换弹时间更短</t>
-  </si>
-  <si>
-    <t>击杀时间获取+1</t>
-  </si>
-  <si>
-    <t>击杀敌人所获得的时间增加</t>
-  </si>
-  <si>
-    <t>视野缩放+20%</t>
-  </si>
-  <si>
-    <t>视野更广</t>
-  </si>
-  <si>
     <t>英文</t>
   </si>
   <si>
+    <t>速度倍率</t>
+  </si>
+  <si>
     <t>Character's ATK Increase</t>
   </si>
   <si>
+    <t>无敌</t>
+  </si>
+  <si>
     <t>Move Faster</t>
   </si>
   <si>
+    <t>无视改写</t>
+  </si>
+  <si>
     <t>Skill Have Additional Times For Use</t>
   </si>
   <si>
+    <t>回血</t>
+  </si>
+  <si>
     <t>Skill Cooldown Decrease 1 Sec</t>
   </si>
   <si>
+    <t>回能</t>
+  </si>
+  <si>
     <t>Invincible Time Longer After Damage</t>
   </si>
   <si>
+    <t>回墨水</t>
+  </si>
+  <si>
     <t>Skills Take More Damage</t>
   </si>
   <si>
+    <t>墨水消耗倍率</t>
+  </si>
+  <si>
     <t>Weapon Take More Damage</t>
   </si>
   <si>
+    <t>基础速度</t>
+  </si>
+  <si>
     <t>Reloading Faster</t>
   </si>
   <si>
+    <t>魔力倍率</t>
+  </si>
+  <si>
     <t>Kills Offer More Times</t>
   </si>
   <si>
@@ -191,320 +365,56 @@
     <t>Wider Vision</t>
   </si>
   <si>
-    <t>魔力倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>使魔加速(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>改写获能提升(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使魔加速无视改写(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野缩放+21%</t>
-  </si>
-  <si>
-    <t>视野缩放+22%</t>
-  </si>
-  <si>
-    <t>视野缩放+23%</t>
-  </si>
-  <si>
-    <t>无视改写</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回墨水</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">获取限制
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数字表示几次后移除</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野缩放+24%</t>
   </si>
   <si>
     <t>改写邻域(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野缩放+25%</t>
-  </si>
-  <si>
-    <t>墨水消耗倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度倍率</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野缩放+26%</t>
-  </si>
-  <si>
-    <t>视野缩放+27%</t>
-  </si>
-  <si>
-    <t>视野缩放+28%</t>
-  </si>
-  <si>
-    <t>视野缩放+29%</t>
-  </si>
-  <si>
-    <t>视野缩放+30%</t>
-  </si>
-  <si>
-    <t>视野缩放+31%</t>
-  </si>
-  <si>
-    <t>视野缩放+32%</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭改写</t>
+  </si>
+  <si>
+    <t>吞噬时是否改写</t>
+  </si>
+  <si>
+    <t>伏笔眩晕</t>
+  </si>
+  <si>
+    <t>伏笔可回收</t>
+  </si>
+  <si>
+    <t>吞噬状态</t>
   </si>
   <si>
     <t>箭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>邻域(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>吞噬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>墨水添加</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>伏笔设置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭改写</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬时是否改写</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏笔眩晕</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏笔可回收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>视野缩放+33%</t>
-  </si>
-  <si>
-    <t>吞噬状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>伏笔回收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始能量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大能量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回能(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>回墨水(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水添加(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏笔设置(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏笔回收(主)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬状态(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏笔可回收(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏笔眩晕(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬时是否改写(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭改写(被)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加墨时加能(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>加墨时加血(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>拥有改写时使魔加速(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用道具技能无敌(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>使魔加速(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视改写(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取倍率(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量获取(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水消耗倍率(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水消耗(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨水上限(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击倍率(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度倍率(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础速度(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量倍率(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础血量(基)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,10 +429,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -530,38 +591,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -569,61 +794,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -881,89 +1383,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="47.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="10" max="10" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="9" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>119</v>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>80</v>
@@ -976,22 +1478,22 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>118</v>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>80</v>
@@ -1004,22 +1506,22 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>117</v>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>80</v>
@@ -1032,22 +1534,22 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>116</v>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>80</v>
@@ -1060,22 +1562,22 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>115</v>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>80</v>
@@ -1088,22 +1590,22 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>114</v>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>
@@ -1116,22 +1618,22 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>113</v>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3">
         <v>80</v>
@@ -1144,22 +1646,22 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>112</v>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <v>80</v>
@@ -1172,22 +1674,22 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>111</v>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1200,22 +1702,22 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>110</v>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>80</v>
@@ -1228,22 +1730,22 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>109</v>
+      <c r="B13" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>80</v>
@@ -1256,22 +1758,22 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>108</v>
+      <c r="B14" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>80</v>
@@ -1284,22 +1786,22 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>107</v>
+      <c r="B15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>80</v>
@@ -1312,22 +1814,22 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>106</v>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>80</v>
@@ -1340,22 +1842,22 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>105</v>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3">
         <v>80</v>
@@ -1368,25 +1870,25 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>104</v>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3">
         <v>80</v>
@@ -1399,22 +1901,22 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>103</v>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3">
         <v>80</v>
@@ -1427,22 +1929,22 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>102</v>
+      <c r="B20" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3">
         <v>80</v>
@@ -1455,22 +1957,22 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>101</v>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3">
         <v>80</v>
@@ -1483,22 +1985,22 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J21" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>100</v>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3">
         <v>80</v>
@@ -1511,22 +2013,22 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J22" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>99</v>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3">
         <v>80</v>
@@ -1539,22 +2041,22 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>98</v>
+      <c r="B24" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3">
         <v>80</v>
@@ -1567,22 +2069,22 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J24" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>97</v>
+      <c r="B25" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3">
         <v>80</v>
@@ -1595,22 +2097,22 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J25" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>89</v>
+      <c r="B26" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3">
         <v>80</v>
@@ -1621,22 +2123,22 @@
       <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>90</v>
+      <c r="B27" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3">
         <v>80</v>
@@ -1647,22 +2149,22 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J27" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>91</v>
+      <c r="B28" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3">
         <v>80</v>
@@ -1673,25 +2175,25 @@
       <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>48</v>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F29" s="3">
         <v>80</v>
@@ -1699,22 +2201,22 @@
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J29" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3">
         <v>80</v>
@@ -1725,103 +2227,103 @@
       <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J30" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>75</v>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>92</v>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F32" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>93</v>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E33" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F33" s="3">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>94</v>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E34" s="3">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F34" s="3">
         <v>80</v>
@@ -1829,48 +2331,48 @@
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>95</v>
+      <c r="B35" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F35" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>96</v>
+      <c r="B36" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3">
         <v>80</v>
@@ -1881,8 +2383,8 @@
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>31</v>
+      <c r="J36" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1896,87 +2398,88 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="40.75" customWidth="1"/>
     <col min="10" max="10" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1989,22 +2492,22 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
+      <c r="B4" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2017,22 +2520,22 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>52</v>
+      <c r="B5" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2045,22 +2548,22 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
+      <c r="B6" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2073,22 +2576,22 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>54</v>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -2101,22 +2604,22 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>55</v>
+      <c r="B8" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2129,22 +2632,22 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>63</v>
+      <c r="B9" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2157,22 +2660,22 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>65</v>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2185,22 +2688,22 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>44</v>
+      <c r="B11" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2213,22 +2716,22 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -2241,22 +2744,22 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
+      <c r="B13" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2267,22 +2770,22 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>47</v>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2293,22 +2796,22 @@
       <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>48</v>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2319,22 +2822,22 @@
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>59</v>
+      <c r="B16" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2345,22 +2848,22 @@
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
+      <c r="B17" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2371,22 +2874,22 @@
       <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>61</v>
+      <c r="B18" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2397,22 +2900,22 @@
       <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>61</v>
+      <c r="B19" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2423,22 +2926,22 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="J19" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>61</v>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2449,22 +2952,22 @@
       <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>79</v>
+      <c r="B21" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2477,22 +2980,22 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>80</v>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2505,22 +3008,22 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J22" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>81</v>
+      <c r="B23" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2533,22 +3036,22 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>82</v>
+      <c r="B24" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2561,22 +3064,22 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J24" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>84</v>
+      <c r="B25" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2589,22 +3092,22 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
+      <c r="B26" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2615,22 +3118,22 @@
       <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>54</v>
+      <c r="B27" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2641,22 +3144,22 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
+      <c r="B28" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -2667,22 +3170,22 @@
       <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>48</v>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2693,22 +3196,22 @@
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J29" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>59</v>
+      <c r="B30" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2719,22 +3222,22 @@
       <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J30" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>75</v>
+      <c r="B31" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2745,22 +3248,22 @@
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J31" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>74</v>
+      <c r="B32" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2771,22 +3274,22 @@
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="J32" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J32" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>76</v>
+      <c r="B33" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2797,22 +3300,22 @@
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J33" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>77</v>
+      <c r="B34" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -2823,22 +3326,22 @@
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J34" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>78</v>
+      <c r="B35" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2849,22 +3352,22 @@
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J35" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>85</v>
+      <c r="B36" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -2875,8 +3378,8 @@
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>31</v>
+      <c r="J36" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2890,8 +3393,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9D444-1B05-442C-ACAE-2FBE6118FFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="9645" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -161,9 +167,6 @@
     <t>视野更广</t>
   </si>
   <si>
-    <t>获取倍率(基)</t>
-  </si>
-  <si>
     <t>视野缩放+21%</t>
   </si>
   <si>
@@ -403,18 +406,20 @@
   <si>
     <t>伏笔回收</t>
   </si>
+  <si>
+    <t>图片序列</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>获能倍率(基)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,351 +447,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -794,253 +484,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1063,69 +511,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1383,19 +796,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K2:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -1406,44 +819,44 @@
     <col min="10" max="10" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1453,8 +866,11 @@
       <c r="J2" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
@@ -1481,8 +897,11 @@
       <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
@@ -1509,8 +928,11 @@
       <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
@@ -1537,8 +959,11 @@
       <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
@@ -1565,8 +990,11 @@
       <c r="J6" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
@@ -1593,8 +1021,11 @@
       <c r="J7" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
@@ -1621,8 +1052,11 @@
       <c r="J8" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
@@ -1649,8 +1083,11 @@
       <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
@@ -1677,8 +1114,11 @@
       <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
@@ -1705,8 +1145,11 @@
       <c r="J11" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
@@ -1733,19 +1176,22 @@
       <c r="J12" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="E13" s="3">
         <v>80</v>
@@ -1761,19 +1207,22 @@
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="3">
         <v>80</v>
@@ -1789,19 +1238,22 @@
       <c r="J14" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E15" s="3">
         <v>80</v>
@@ -1817,19 +1269,22 @@
       <c r="J15" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="3">
         <v>80</v>
@@ -1845,19 +1300,22 @@
       <c r="J16" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E17" s="3">
         <v>80</v>
@@ -1873,22 +1331,25 @@
       <c r="J17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="3">
         <v>80</v>
@@ -1904,19 +1365,22 @@
       <c r="J18" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="3">
         <v>80</v>
@@ -1932,19 +1396,22 @@
       <c r="J19" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E20" s="3">
         <v>80</v>
@@ -1960,19 +1427,22 @@
       <c r="J20" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E21" s="3">
         <v>80</v>
@@ -1988,19 +1458,22 @@
       <c r="J21" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E22" s="3">
         <v>80</v>
@@ -2016,19 +1489,22 @@
       <c r="J22" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E23" s="3">
         <v>80</v>
@@ -2044,19 +1520,22 @@
       <c r="J23" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E24" s="3">
         <v>80</v>
@@ -2072,19 +1551,22 @@
       <c r="J24" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="E25" s="3">
         <v>80</v>
@@ -2100,19 +1582,22 @@
       <c r="J25" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3">
         <v>80</v>
@@ -2126,19 +1611,22 @@
       <c r="J26" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3">
         <v>80</v>
@@ -2152,19 +1640,22 @@
       <c r="J27" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3">
         <v>80</v>
@@ -2178,19 +1669,22 @@
       <c r="J28" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
@@ -2204,19 +1698,22 @@
       <c r="J29" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3">
         <v>80</v>
@@ -2230,19 +1727,22 @@
       <c r="J30" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
@@ -2256,19 +1756,22 @@
       <c r="J31" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
@@ -2282,19 +1785,22 @@
       <c r="J32" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
@@ -2308,19 +1814,22 @@
       <c r="J33" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3">
         <v>20</v>
@@ -2334,19 +1843,22 @@
       <c r="J34" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3">
         <v>10</v>
@@ -2360,19 +1872,22 @@
       <c r="J35" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3">
         <v>80</v>
@@ -2385,6 +1900,9 @@
       </c>
       <c r="J36" s="7" t="s">
         <v>41</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2398,66 +1916,65 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="40.75" customWidth="1"/>
     <col min="10" max="10" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2465,15 +1982,18 @@
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>82</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -2493,15 +2013,18 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -2521,15 +2044,18 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>86</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -2549,15 +2075,18 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>88</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -2577,15 +2106,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>90</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -2605,15 +2137,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>92</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -2633,15 +2168,18 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>94</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -2661,15 +2199,18 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>96</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -2689,15 +2230,18 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -2717,15 +2261,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -2745,21 +2292,24 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>102</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2773,19 +2323,22 @@
       <c r="J13" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2799,19 +2352,22 @@
       <c r="J14" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2825,19 +2381,22 @@
       <c r="J15" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2851,19 +2410,22 @@
       <c r="J16" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2877,19 +2439,22 @@
       <c r="J17" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2903,19 +2468,22 @@
       <c r="J18" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2929,19 +2497,22 @@
       <c r="J19" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2955,19 +2526,22 @@
       <c r="J20" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2983,19 +2557,22 @@
       <c r="J21" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -3011,19 +2588,22 @@
       <c r="J22" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -3039,19 +2619,22 @@
       <c r="J23" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -3067,19 +2650,22 @@
       <c r="J24" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -3095,19 +2681,22 @@
       <c r="J25" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -3121,19 +2710,22 @@
       <c r="J26" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -3147,19 +2739,22 @@
       <c r="J27" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -3173,19 +2768,22 @@
       <c r="J28" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -3199,19 +2797,22 @@
       <c r="J29" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -3225,19 +2826,22 @@
       <c r="J30" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -3251,19 +2855,22 @@
       <c r="J31" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3277,19 +2884,22 @@
       <c r="J32" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3303,19 +2913,22 @@
       <c r="J33" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3329,19 +2942,22 @@
       <c r="J34" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3355,19 +2971,22 @@
       <c r="J35" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -3380,6 +2999,9 @@
       </c>
       <c r="J36" s="7" t="s">
         <v>41</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3393,8 +3015,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E9D444-1B05-442C-ACAE-2FBE6118FFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169577D-7C40-4364-A4BF-D716CD39EA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -412,6 +412,14 @@
   </si>
   <si>
     <t>获能倍率(基)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使使魔加速(主)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤使魔(主)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -802,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K2:K36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1903,6 +1911,64 @@
       </c>
       <c r="K36">
         <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>3012</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="3">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3">
+        <v>80</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>3013</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="3">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>80</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3002,6 +3068,64 @@
       </c>
       <c r="K36">
         <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>3012</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="3">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3">
+        <v>80</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>3013</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="3">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>80</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3017,6 +3141,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonesnow\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169577D-7C40-4364-A4BF-D716CD39EA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685F4B-5AC8-468A-8424-F05DBDA3A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -77,121 +77,97 @@
     <t>中文</t>
   </si>
   <si>
-    <t>基础血量(基)</t>
-  </si>
-  <si>
-    <t>角色攻击力+2</t>
-  </si>
-  <si>
-    <t>角色攻击力提升</t>
-  </si>
-  <si>
-    <t>血量倍率(基)</t>
-  </si>
-  <si>
-    <t>移动速度+0.2k/s</t>
-  </si>
-  <si>
-    <t>移动更快</t>
-  </si>
-  <si>
-    <t>基础速度(基)</t>
-  </si>
-  <si>
-    <t>技能储存+1</t>
-  </si>
-  <si>
-    <t>技能能够额外储存一次</t>
-  </si>
-  <si>
-    <t>速度倍率(基)</t>
-  </si>
-  <si>
-    <t>技能冷却-1</t>
-  </si>
-  <si>
-    <t>技能冷却缩减1秒</t>
+    <t>图片序列</t>
+  </si>
+  <si>
+    <t>角色血量(基)</t>
+  </si>
+  <si>
+    <t>未说明</t>
+  </si>
+  <si>
+    <t>【被动】角色基础血量提升</t>
+  </si>
+  <si>
+    <t>角色血量倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】角色血量倍率提升</t>
+  </si>
+  <si>
+    <t>角色基础速度(基)</t>
+  </si>
+  <si>
+    <t>【被动】基础基础速度提升</t>
+  </si>
+  <si>
+    <t>角色速度倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】基础速度倍率提升</t>
   </si>
   <si>
     <t>基础攻击(基)</t>
   </si>
   <si>
-    <t>受伤后无敌+0.5s</t>
-  </si>
-  <si>
-    <t>受伤后无敌时间变长</t>
+    <t>【被动】基础攻击提升</t>
   </si>
   <si>
     <t>攻击倍率(基)</t>
   </si>
   <si>
-    <t>技能伤害倍率+50%</t>
-  </si>
-  <si>
-    <t>技能伤害更高</t>
+    <t>【被动】基础攻击倍率更高</t>
   </si>
   <si>
     <t>墨水上限(基)</t>
   </si>
   <si>
-    <t>射击伤害倍率+20%</t>
-  </si>
-  <si>
-    <t>武器伤害更高</t>
+    <t>【被动】墨水上限更高</t>
   </si>
   <si>
     <t>墨水消耗(基)</t>
   </si>
   <si>
-    <t>换弹时间*0.5</t>
-  </si>
-  <si>
-    <t>换弹时间更短</t>
+    <t>【被动】改写使魔的消耗的降低</t>
   </si>
   <si>
     <t>墨水消耗倍率(基)</t>
   </si>
   <si>
-    <t>击杀时间获取+1</t>
-  </si>
-  <si>
-    <t>击杀敌人所获得的时间增加</t>
+    <t>【被动】改写使魔所消耗的倍率降低</t>
   </si>
   <si>
     <t>能量获取(基)</t>
   </si>
   <si>
-    <t>视野缩放+20%</t>
-  </si>
-  <si>
-    <t>视野更广</t>
-  </si>
-  <si>
-    <t>视野缩放+21%</t>
+    <t>【被动】获得能量提升</t>
+  </si>
+  <si>
+    <t>获能倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】获得能量倍率提升</t>
   </si>
   <si>
     <t>无敌(基)</t>
   </si>
   <si>
-    <t>视野缩放+22%</t>
-  </si>
-  <si>
-    <t>无视改写(基)</t>
-  </si>
-  <si>
-    <t>视野缩放+23%</t>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>无视改写</t>
   </si>
   <si>
     <t>使魔加速(基)</t>
   </si>
   <si>
-    <t>视野缩放+24%</t>
+    <t>【被动】属于自己的使魔基础速度提升</t>
   </si>
   <si>
     <t>使用道具技能无敌(基)</t>
   </si>
   <si>
-    <t>视野缩放+25%</t>
+    <t>【被动】使用道具或发射箭矢时无敌3s</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -200,82 +176,124 @@
     <t>拥有改写时使魔加速(基)</t>
   </si>
   <si>
-    <t>视野缩放+26%</t>
+    <t>【被动】处于改写状态下提升自己的使魔速度</t>
   </si>
   <si>
     <t>加墨时加血(基)</t>
   </si>
   <si>
-    <t>视野缩放+27%</t>
+    <t>【被动】获得墨水时恢复血量</t>
   </si>
   <si>
     <t>加墨时加能(基)</t>
   </si>
   <si>
-    <t>视野缩放+28%</t>
+    <t>【被动】获得墨水时恢复能量</t>
   </si>
   <si>
     <t>箭改写(被)</t>
   </si>
   <si>
-    <t>视野缩放+29%</t>
+    <t>【被动】箭矢不再击杀非我方使魔，而是改写他们</t>
   </si>
   <si>
     <t>吞噬时是否改写(被)</t>
   </si>
   <si>
-    <t>视野缩放+30%</t>
+    <t>【被动】吞噬后视为拥有改写能力</t>
   </si>
   <si>
     <t>伏笔眩晕(被)</t>
   </si>
   <si>
-    <t>视野缩放+31%</t>
+    <t>【被动】[伏笔]触发时还可眩晕玩家3s</t>
   </si>
   <si>
     <t>伏笔可回收(被)</t>
   </si>
   <si>
-    <t>视野缩放+32%</t>
+    <t>【被动】[伏笔]可被自身回收并回复所有能量</t>
   </si>
   <si>
     <t>吞噬状态(被)</t>
   </si>
   <si>
-    <t>视野缩放+33%</t>
+    <t>攻击，移动速度提升</t>
   </si>
   <si>
     <t>回血(主)</t>
   </si>
   <si>
+    <t>【魔法】恢复一定生命值</t>
+  </si>
+  <si>
     <t>回能(主)</t>
   </si>
   <si>
+    <t>获得一定能量</t>
+  </si>
+  <si>
     <t>回墨水(主)</t>
   </si>
   <si>
+    <t>获得一定墨水</t>
+  </si>
+  <si>
     <t>使魔加速无视改写(主)</t>
   </si>
   <si>
+    <t>【终极技能】使自己的使魔加速且无视玩家的改写能力进行攻击</t>
+  </si>
+  <si>
     <t>加速(主)</t>
   </si>
   <si>
+    <t>提升自身速度</t>
+  </si>
+  <si>
     <t>邻域(主)</t>
   </si>
   <si>
+    <t>【终极技能】放置一个[伏笔]，持有墨水的玩家接触[伏笔]会回收所有墨水</t>
+  </si>
+  <si>
     <t>箭(主)</t>
   </si>
   <si>
+    <t>【终极技能】向自身前进方向射出一只箭矢，箭矢会击杀所有非我方使魔</t>
+  </si>
+  <si>
     <t>吞噬(主)</t>
   </si>
   <si>
+    <t>【终极技能】吞噬所有我方使魔，提升自身速度并可直接伤害玩家</t>
+  </si>
+  <si>
     <t>墨水添加(主)</t>
   </si>
   <si>
+    <t>【终极技能】恢复一定墨水</t>
+  </si>
+  <si>
     <t>伏笔设置(主)</t>
   </si>
   <si>
     <t>伏笔回收(主)</t>
+  </si>
+  <si>
+    <t>回收伏笔</t>
+  </si>
+  <si>
+    <t>使使魔加速(主)</t>
+  </si>
+  <si>
+    <t>【魔法】使自己的使魔加速</t>
+  </si>
+  <si>
+    <t>召唤使魔(主)</t>
+  </si>
+  <si>
+    <t>【魔法】召唤一个属于自己的使魔</t>
   </si>
   <si>
     <r>
@@ -311,16 +329,19 @@
     <t>速度倍率</t>
   </si>
   <si>
+    <t>角色攻击力+2</t>
+  </si>
+  <si>
     <t>Character's ATK Increase</t>
   </si>
   <si>
-    <t>无敌</t>
+    <t>移动速度+0.2k/s</t>
   </si>
   <si>
     <t>Move Faster</t>
   </si>
   <si>
-    <t>无视改写</t>
+    <t>技能储存+1</t>
   </si>
   <si>
     <t>Skill Have Additional Times For Use</t>
@@ -329,69 +350,132 @@
     <t>回血</t>
   </si>
   <si>
+    <t>技能冷却-1</t>
+  </si>
+  <si>
     <t>Skill Cooldown Decrease 1 Sec</t>
   </si>
   <si>
     <t>回能</t>
   </si>
   <si>
+    <t>受伤后无敌+0.5s</t>
+  </si>
+  <si>
     <t>Invincible Time Longer After Damage</t>
   </si>
   <si>
     <t>回墨水</t>
   </si>
   <si>
+    <t>技能伤害倍率+50%</t>
+  </si>
+  <si>
     <t>Skills Take More Damage</t>
   </si>
   <si>
     <t>墨水消耗倍率</t>
   </si>
   <si>
+    <t>射击伤害倍率+20%</t>
+  </si>
+  <si>
     <t>Weapon Take More Damage</t>
   </si>
   <si>
     <t>基础速度</t>
   </si>
   <si>
+    <t>换弹时间*0.5</t>
+  </si>
+  <si>
     <t>Reloading Faster</t>
   </si>
   <si>
     <t>魔力倍率</t>
   </si>
   <si>
+    <t>击杀时间获取+1</t>
+  </si>
+  <si>
     <t>Kills Offer More Times</t>
   </si>
   <si>
     <t>The Method of Vision</t>
   </si>
   <si>
+    <t>视野缩放+20%</t>
+  </si>
+  <si>
     <t>Wider Vision</t>
   </si>
   <si>
     <t>使魔加速(被)</t>
   </si>
   <si>
+    <t>视野缩放+21%</t>
+  </si>
+  <si>
+    <t>视野更广</t>
+  </si>
+  <si>
     <t>改写获能提升(被)</t>
   </si>
   <si>
+    <t>视野缩放+22%</t>
+  </si>
+  <si>
+    <t>视野缩放+23%</t>
+  </si>
+  <si>
+    <t>视野缩放+24%</t>
+  </si>
+  <si>
     <t>改写邻域(主)</t>
   </si>
   <si>
+    <t>视野缩放+25%</t>
+  </si>
+  <si>
+    <t>视野缩放+26%</t>
+  </si>
+  <si>
+    <t>视野缩放+27%</t>
+  </si>
+  <si>
+    <t>视野缩放+28%</t>
+  </si>
+  <si>
     <t>箭改写</t>
   </si>
   <si>
+    <t>视野缩放+29%</t>
+  </si>
+  <si>
     <t>吞噬时是否改写</t>
   </si>
   <si>
+    <t>视野缩放+30%</t>
+  </si>
+  <si>
     <t>伏笔眩晕</t>
   </si>
   <si>
+    <t>视野缩放+31%</t>
+  </si>
+  <si>
     <t>伏笔可回收</t>
   </si>
   <si>
+    <t>视野缩放+32%</t>
+  </si>
+  <si>
     <t>吞噬状态</t>
   </si>
   <si>
+    <t>视野缩放+33%</t>
+  </si>
+  <si>
     <t>箭</t>
   </si>
   <si>
@@ -407,40 +491,19 @@
     <t>伏笔回收</t>
   </si>
   <si>
-    <t>图片序列</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获能倍率(基)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>狂暴(基)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使使魔加速(主)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤使魔(主)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,9 +568,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,21 +579,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,72 +877,72 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="52.5" customWidth="1"/>
+    <col min="10" max="10" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="7"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>116</v>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
         <v>80</v>
@@ -902,8 +955,8 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -913,14 +966,14 @@
       <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3">
         <v>80</v>
@@ -933,7 +986,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="K4">
@@ -944,14 +997,14 @@
       <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>80</v>
@@ -964,8 +1017,8 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="7" t="s">
-        <v>20</v>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -975,14 +1028,14 @@
       <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
         <v>80</v>
@@ -995,8 +1048,8 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
+      <c r="J6" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1006,14 +1059,14 @@
       <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
         <v>80</v>
@@ -1026,8 +1079,8 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="7" t="s">
-        <v>26</v>
+      <c r="J7" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1037,14 +1090,14 @@
       <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>27</v>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>
@@ -1057,8 +1110,8 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="7" t="s">
-        <v>29</v>
+      <c r="J8" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1068,14 +1121,14 @@
       <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>80</v>
@@ -1088,8 +1141,8 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="7" t="s">
-        <v>32</v>
+      <c r="J9" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1099,14 +1152,14 @@
       <c r="A10" s="3">
         <v>1008</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>33</v>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
         <v>80</v>
@@ -1119,8 +1172,8 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
+      <c r="J10" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1130,14 +1183,14 @@
       <c r="A11" s="3">
         <v>1009</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1150,8 +1203,8 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="7" t="s">
-        <v>38</v>
+      <c r="J11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1161,14 +1214,14 @@
       <c r="A12" s="3">
         <v>1010</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>39</v>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3">
         <v>80</v>
@@ -1181,8 +1234,8 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="7" t="s">
-        <v>41</v>
+      <c r="J12" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1192,14 +1245,14 @@
       <c r="A13" s="3">
         <v>1011</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>117</v>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3">
         <v>80</v>
@@ -1212,8 +1265,8 @@
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
+      <c r="J13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -1223,14 +1276,14 @@
       <c r="A14" s="3">
         <v>1012</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
+      <c r="B14" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3">
         <v>80</v>
@@ -1243,8 +1296,8 @@
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
+      <c r="J14" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1254,14 +1307,14 @@
       <c r="A15" s="3">
         <v>1013</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
+      <c r="B15" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3">
         <v>80</v>
@@ -1274,8 +1327,8 @@
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="7" t="s">
-        <v>41</v>
+      <c r="J15" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1285,14 +1338,14 @@
       <c r="A16" s="3">
         <v>1014</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3">
         <v>80</v>
@@ -1305,8 +1358,8 @@
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="7" t="s">
-        <v>41</v>
+      <c r="J16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -1316,14 +1369,14 @@
       <c r="A17" s="3">
         <v>1015</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3">
         <v>80</v>
@@ -1336,28 +1389,28 @@
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="7" t="s">
-        <v>41</v>
+      <c r="J17" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>51</v>
+      <c r="L17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>52</v>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>80</v>
@@ -1370,8 +1423,8 @@
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="7" t="s">
-        <v>41</v>
+      <c r="J18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -1381,14 +1434,14 @@
       <c r="A19" s="3">
         <v>1017</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
+      <c r="B19" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3">
         <v>80</v>
@@ -1401,8 +1454,8 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="7" t="s">
-        <v>41</v>
+      <c r="J19" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="K19">
         <v>14</v>
@@ -1412,14 +1465,14 @@
       <c r="A20" s="3">
         <v>1018</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>56</v>
+      <c r="B20" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3">
         <v>80</v>
@@ -1432,8 +1485,8 @@
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="7" t="s">
-        <v>41</v>
+      <c r="J20" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="K20">
         <v>15</v>
@@ -1443,14 +1496,14 @@
       <c r="A21" s="3">
         <v>2001</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>58</v>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3">
         <v>80</v>
@@ -1463,8 +1516,8 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="7" t="s">
-        <v>41</v>
+      <c r="J21" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -1474,14 +1527,14 @@
       <c r="A22" s="3">
         <v>2002</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>60</v>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3">
         <v>80</v>
@@ -1494,8 +1547,8 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="7" t="s">
-        <v>41</v>
+      <c r="J22" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -1505,14 +1558,14 @@
       <c r="A23" s="3">
         <v>2003</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>62</v>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3">
         <v>80</v>
@@ -1525,8 +1578,8 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="7" t="s">
-        <v>41</v>
+      <c r="J23" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="K23">
         <v>16</v>
@@ -1536,14 +1589,14 @@
       <c r="A24" s="3">
         <v>2004</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>64</v>
+      <c r="B24" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3">
         <v>80</v>
@@ -1556,8 +1609,8 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="7" t="s">
-        <v>41</v>
+      <c r="J24" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="K24">
         <v>17</v>
@@ -1567,14 +1620,14 @@
       <c r="A25" s="3">
         <v>2005</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>66</v>
+      <c r="B25" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3">
         <v>80</v>
@@ -1587,8 +1640,8 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="7" t="s">
-        <v>41</v>
+      <c r="J25" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1598,14 +1651,14 @@
       <c r="A26" s="3">
         <v>3001</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>68</v>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3">
         <v>80</v>
@@ -1616,8 +1669,8 @@
       <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>41</v>
+      <c r="J26" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1627,14 +1680,14 @@
       <c r="A27" s="3">
         <v>3002</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>69</v>
+      <c r="B27" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>80</v>
@@ -1645,8 +1698,8 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>41</v>
+      <c r="J27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -1656,14 +1709,14 @@
       <c r="A28" s="3">
         <v>3003</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>70</v>
+      <c r="B28" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3">
         <v>80</v>
@@ -1674,8 +1727,8 @@
       <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>41</v>
+      <c r="J28" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1685,14 +1738,14 @@
       <c r="A29" s="3">
         <v>3004</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
@@ -1703,8 +1756,8 @@
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>41</v>
+      <c r="J29" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1714,14 +1767,14 @@
       <c r="A30" s="3">
         <v>3005</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3">
         <v>80</v>
@@ -1732,8 +1785,8 @@
       <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>41</v>
+      <c r="J30" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1743,14 +1796,14 @@
       <c r="A31" s="3">
         <v>3006</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>73</v>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
@@ -1761,8 +1814,8 @@
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>41</v>
+      <c r="J31" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1772,14 +1825,14 @@
       <c r="A32" s="3">
         <v>3007</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>74</v>
+      <c r="B32" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
@@ -1790,8 +1843,8 @@
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>41</v>
+      <c r="J32" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -1801,14 +1854,14 @@
       <c r="A33" s="3">
         <v>3008</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
+      <c r="B33" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
@@ -1819,8 +1872,8 @@
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>41</v>
+      <c r="J33" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -1830,14 +1883,14 @@
       <c r="A34" s="3">
         <v>3009</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3">
         <v>20</v>
@@ -1848,8 +1901,8 @@
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>41</v>
+      <c r="J34" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -1859,14 +1912,14 @@
       <c r="A35" s="3">
         <v>3010</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>77</v>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3">
         <v>10</v>
@@ -1877,8 +1930,8 @@
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>41</v>
+      <c r="J35" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -1888,14 +1941,14 @@
       <c r="A36" s="3">
         <v>3011</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>78</v>
+      <c r="B36" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3">
         <v>80</v>
@@ -1906,8 +1959,8 @@
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>41</v>
+      <c r="J36" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -1918,13 +1971,13 @@
         <v>3012</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3">
         <v>80</v>
@@ -1935,8 +1988,8 @@
       <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>41</v>
+      <c r="J37" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1946,14 +1999,14 @@
       <c r="A38" s="3">
         <v>3013</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>119</v>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3">
         <v>80</v>
@@ -1964,8 +2017,8 @@
       <c r="G38" s="3">
         <v>3</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>41</v>
+      <c r="J38" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1982,7 +2035,7 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2004,68 +2057,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="5" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>116</v>
+      <c r="J2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>83</v>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2078,8 +2131,8 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="7" t="s">
-        <v>84</v>
+      <c r="J3" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2089,14 +2142,14 @@
       <c r="A4" s="3">
         <v>1002</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2109,8 +2162,8 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="7" t="s">
-        <v>86</v>
+      <c r="J4" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2120,14 +2173,14 @@
       <c r="A5" s="3">
         <v>1003</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>87</v>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2140,8 +2193,8 @@
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="7" t="s">
-        <v>88</v>
+      <c r="J5" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="K5">
         <v>9</v>
@@ -2151,14 +2204,14 @@
       <c r="A6" s="3">
         <v>1004</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>89</v>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2171,8 +2224,8 @@
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="7" t="s">
-        <v>90</v>
+      <c r="J6" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2182,14 +2235,14 @@
       <c r="A7" s="3">
         <v>1005</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>91</v>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -2202,8 +2255,8 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="7" t="s">
-        <v>92</v>
+      <c r="J7" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -2213,14 +2266,14 @@
       <c r="A8" s="3">
         <v>1006</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>93</v>
+      <c r="B8" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2233,8 +2286,8 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="7" t="s">
-        <v>94</v>
+      <c r="J8" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -2244,14 +2297,14 @@
       <c r="A9" s="3">
         <v>1007</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>95</v>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2264,8 +2317,8 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="7" t="s">
-        <v>96</v>
+      <c r="J9" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -2275,14 +2328,14 @@
       <c r="A10" s="3">
         <v>1008</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>97</v>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2295,8 +2348,8 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="7" t="s">
-        <v>98</v>
+      <c r="J10" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2306,14 +2359,14 @@
       <c r="A11" s="3">
         <v>1009</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>99</v>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2326,8 +2379,8 @@
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="7" t="s">
-        <v>100</v>
+      <c r="J11" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -2338,13 +2391,13 @@
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -2357,8 +2410,8 @@
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="7" t="s">
-        <v>102</v>
+      <c r="J12" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2368,14 +2421,14 @@
       <c r="A13" s="3">
         <v>1011</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>103</v>
+      <c r="B13" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2386,8 +2439,8 @@
       <c r="G13" s="3">
         <v>3</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>41</v>
+      <c r="J13" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K13">
         <v>7</v>
@@ -2397,14 +2450,14 @@
       <c r="A14" s="3">
         <v>1012</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>104</v>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2415,8 +2468,8 @@
       <c r="G14" s="3">
         <v>3</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>41</v>
+      <c r="J14" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2426,14 +2479,14 @@
       <c r="A15" s="3">
         <v>1013</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2444,8 +2497,8 @@
       <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>41</v>
+      <c r="J15" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2455,14 +2508,14 @@
       <c r="A16" s="3">
         <v>1014</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>72</v>
+      <c r="B16" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2473,8 +2526,8 @@
       <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>41</v>
+      <c r="J16" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K16">
         <v>6</v>
@@ -2484,14 +2537,14 @@
       <c r="A17" s="3">
         <v>1015</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>105</v>
+      <c r="B17" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2502,8 +2555,8 @@
       <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>41</v>
+      <c r="J17" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -2513,14 +2566,14 @@
       <c r="A18" s="3">
         <v>1016</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>105</v>
+      <c r="B18" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2531,8 +2584,8 @@
       <c r="G18" s="3">
         <v>3</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>41</v>
+      <c r="J18" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -2542,14 +2595,14 @@
       <c r="A19" s="3">
         <v>1017</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>105</v>
+      <c r="B19" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2560,8 +2613,8 @@
       <c r="G19" s="3">
         <v>3</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>41</v>
+      <c r="J19" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K19">
         <v>14</v>
@@ -2571,14 +2624,14 @@
       <c r="A20" s="3">
         <v>1018</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>105</v>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2589,8 +2642,8 @@
       <c r="G20" s="3">
         <v>3</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>41</v>
+      <c r="J20" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K20">
         <v>15</v>
@@ -2600,14 +2653,14 @@
       <c r="A21" s="3">
         <v>2001</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>106</v>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2620,8 +2673,8 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="7" t="s">
-        <v>41</v>
+      <c r="J21" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K21">
         <v>10</v>
@@ -2631,14 +2684,14 @@
       <c r="A22" s="3">
         <v>2002</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>107</v>
+      <c r="B22" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2651,8 +2704,8 @@
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="7" t="s">
-        <v>41</v>
+      <c r="J22" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K22">
         <v>13</v>
@@ -2662,14 +2715,14 @@
       <c r="A23" s="3">
         <v>2003</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>108</v>
+      <c r="B23" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2682,8 +2735,8 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="7" t="s">
-        <v>41</v>
+      <c r="J23" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K23">
         <v>16</v>
@@ -2693,14 +2746,14 @@
       <c r="A24" s="3">
         <v>2004</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>109</v>
+      <c r="B24" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2713,8 +2766,8 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="7" t="s">
-        <v>41</v>
+      <c r="J24" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K24">
         <v>17</v>
@@ -2724,14 +2777,14 @@
       <c r="A25" s="3">
         <v>2005</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>110</v>
+      <c r="B25" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2744,8 +2797,8 @@
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="7" t="s">
-        <v>41</v>
+      <c r="J25" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2755,14 +2808,14 @@
       <c r="A26" s="3">
         <v>3001</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>89</v>
+      <c r="B26" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2773,8 +2826,8 @@
       <c r="G26" s="3">
         <v>3</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>41</v>
+      <c r="J26" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2784,14 +2837,14 @@
       <c r="A27" s="3">
         <v>3002</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>91</v>
+      <c r="B27" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2802,8 +2855,8 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>41</v>
+      <c r="J27" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2813,14 +2866,14 @@
       <c r="A28" s="3">
         <v>3003</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>93</v>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -2831,8 +2884,8 @@
       <c r="G28" s="3">
         <v>3</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>41</v>
+      <c r="J28" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2842,14 +2895,14 @@
       <c r="A29" s="3">
         <v>3004</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>71</v>
+      <c r="B29" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2860,8 +2913,8 @@
       <c r="G29" s="3">
         <v>3</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>41</v>
+      <c r="J29" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2871,14 +2924,14 @@
       <c r="A30" s="3">
         <v>3005</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>72</v>
+      <c r="B30" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2889,8 +2942,8 @@
       <c r="G30" s="3">
         <v>3</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>41</v>
+      <c r="J30" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2900,14 +2953,14 @@
       <c r="A31" s="3">
         <v>3006</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>73</v>
+      <c r="B31" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2918,8 +2971,8 @@
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>41</v>
+      <c r="J31" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2929,14 +2982,14 @@
       <c r="A32" s="3">
         <v>3007</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>111</v>
+      <c r="B32" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2947,8 +3000,8 @@
       <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>41</v>
+      <c r="J32" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2958,14 +3011,14 @@
       <c r="A33" s="3">
         <v>3008</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
+      <c r="B33" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2976,8 +3029,8 @@
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>41</v>
+      <c r="J33" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2987,14 +3040,14 @@
       <c r="A34" s="3">
         <v>3009</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>113</v>
+      <c r="B34" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3005,8 +3058,8 @@
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>41</v>
+      <c r="J34" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -3016,14 +3069,14 @@
       <c r="A35" s="3">
         <v>3010</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>114</v>
+      <c r="B35" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3034,8 +3087,8 @@
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>41</v>
+      <c r="J35" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -3045,14 +3098,14 @@
       <c r="A36" s="3">
         <v>3011</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>115</v>
+      <c r="B36" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -3063,8 +3116,8 @@
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>41</v>
+      <c r="J36" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3074,14 +3127,14 @@
       <c r="A37" s="3">
         <v>3012</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>118</v>
+      <c r="B37" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E37" s="3">
         <v>80</v>
@@ -3092,8 +3145,8 @@
       <c r="G37" s="3">
         <v>3</v>
       </c>
-      <c r="J37" s="7" t="s">
-        <v>41</v>
+      <c r="J37" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3103,26 +3156,26 @@
       <c r="A38" s="3">
         <v>3013</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>80</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="3">
-        <v>80</v>
-      </c>
-      <c r="F38" s="3">
-        <v>80</v>
-      </c>
-      <c r="G38" s="3">
-        <v>3</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3139,8 +3192,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D169577D-7C40-4364-A4BF-D716CD39EA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -77,121 +71,100 @@
     <t>中文</t>
   </si>
   <si>
-    <t>基础血量(基)</t>
-  </si>
-  <si>
-    <t>角色攻击力+2</t>
-  </si>
-  <si>
-    <t>角色攻击力提升</t>
-  </si>
-  <si>
-    <t>血量倍率(基)</t>
-  </si>
-  <si>
-    <t>移动速度+0.2k/s</t>
-  </si>
-  <si>
-    <t>移动更快</t>
-  </si>
-  <si>
-    <t>基础速度(基)</t>
-  </si>
-  <si>
-    <t>技能储存+1</t>
-  </si>
-  <si>
-    <t>技能能够额外储存一次</t>
-  </si>
-  <si>
-    <t>速度倍率(基)</t>
-  </si>
-  <si>
-    <t>技能冷却-1</t>
-  </si>
-  <si>
-    <t>技能冷却缩减1秒</t>
+    <t>图片序列</t>
+  </si>
+  <si>
+    <t>角色血量(基)</t>
+  </si>
+  <si>
+    <t>未说明</t>
+  </si>
+  <si>
+    <t>【被动】角色基础血量提升</t>
+  </si>
+  <si>
+    <t>角色血量倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】角色血量倍率提升</t>
+  </si>
+  <si>
+    <t>角色基础速度(基)</t>
+  </si>
+  <si>
+    <t>【被动】基础基础速度提升</t>
+  </si>
+  <si>
+    <t>角色速度倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】基础速度倍率提升</t>
   </si>
   <si>
     <t>基础攻击(基)</t>
   </si>
   <si>
-    <t>受伤后无敌+0.5s</t>
-  </si>
-  <si>
-    <t>受伤后无敌时间变长</t>
+    <t>【被动】基础攻击提升</t>
   </si>
   <si>
     <t>攻击倍率(基)</t>
   </si>
   <si>
-    <t>技能伤害倍率+50%</t>
-  </si>
-  <si>
-    <t>技能伤害更高</t>
+    <t>【被动】基础攻击倍率更高</t>
   </si>
   <si>
     <t>墨水上限(基)</t>
   </si>
   <si>
-    <t>射击伤害倍率+20%</t>
-  </si>
-  <si>
-    <t>武器伤害更高</t>
+    <t>【被动】墨水上限更高</t>
   </si>
   <si>
     <t>墨水消耗(基)</t>
   </si>
   <si>
-    <t>换弹时间*0.5</t>
-  </si>
-  <si>
-    <t>换弹时间更短</t>
+    <t>【被动】改写使魔的消耗的降低</t>
   </si>
   <si>
     <t>墨水消耗倍率(基)</t>
   </si>
   <si>
-    <t>击杀时间获取+1</t>
-  </si>
-  <si>
-    <t>击杀敌人所获得的时间增加</t>
+    <t>【被动】改写使魔所消耗的倍率降低</t>
   </si>
   <si>
     <t>能量获取(基)</t>
   </si>
   <si>
-    <t>视野缩放+20%</t>
-  </si>
-  <si>
-    <t>视野更广</t>
-  </si>
-  <si>
-    <t>视野缩放+21%</t>
+    <t>【被动】获得能量提升</t>
+  </si>
+  <si>
+    <t>获能倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】获得能量倍率提升</t>
   </si>
   <si>
     <t>无敌(基)</t>
   </si>
   <si>
-    <t>视野缩放+22%</t>
+    <t>无敌</t>
   </si>
   <si>
     <t>无视改写(基)</t>
   </si>
   <si>
-    <t>视野缩放+23%</t>
+    <t>无视改写</t>
   </si>
   <si>
     <t>使魔加速(基)</t>
   </si>
   <si>
-    <t>视野缩放+24%</t>
+    <t>【被动】属于自己的使魔基础速度提升</t>
   </si>
   <si>
     <t>使用道具技能无敌(基)</t>
   </si>
   <si>
-    <t>视野缩放+25%</t>
+    <t>【被动】使用道具或发射箭矢时无敌3s</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -200,82 +173,124 @@
     <t>拥有改写时使魔加速(基)</t>
   </si>
   <si>
-    <t>视野缩放+26%</t>
+    <t>【被动】处于改写状态下提升自己的使魔速度</t>
   </si>
   <si>
     <t>加墨时加血(基)</t>
   </si>
   <si>
-    <t>视野缩放+27%</t>
+    <t>【被动】获得墨水时恢复血量</t>
   </si>
   <si>
     <t>加墨时加能(基)</t>
   </si>
   <si>
-    <t>视野缩放+28%</t>
+    <t>【被动】获得墨水时恢复能量</t>
   </si>
   <si>
     <t>箭改写(被)</t>
   </si>
   <si>
-    <t>视野缩放+29%</t>
+    <t>【被动】箭矢不再击杀非我方使魔，而是改写他们</t>
   </si>
   <si>
     <t>吞噬时是否改写(被)</t>
   </si>
   <si>
-    <t>视野缩放+30%</t>
+    <t>【被动】吞噬后视为拥有改写能力</t>
   </si>
   <si>
     <t>伏笔眩晕(被)</t>
   </si>
   <si>
-    <t>视野缩放+31%</t>
+    <t>【被动】[伏笔]触发时还可眩晕玩家3s</t>
   </si>
   <si>
     <t>伏笔可回收(被)</t>
   </si>
   <si>
-    <t>视野缩放+32%</t>
+    <t>【被动】[伏笔]可被自身回收并回复所有能量</t>
   </si>
   <si>
     <t>吞噬状态(被)</t>
   </si>
   <si>
-    <t>视野缩放+33%</t>
+    <t>攻击，移动速度提升</t>
   </si>
   <si>
     <t>回血(主)</t>
   </si>
   <si>
+    <t>【魔法】恢复一定生命值</t>
+  </si>
+  <si>
     <t>回能(主)</t>
   </si>
   <si>
+    <t>获得一定能量</t>
+  </si>
+  <si>
     <t>回墨水(主)</t>
   </si>
   <si>
+    <t>获得一定墨水</t>
+  </si>
+  <si>
     <t>使魔加速无视改写(主)</t>
   </si>
   <si>
+    <t>【终极技能】使自己的使魔加速且无视玩家的改写能力进行攻击</t>
+  </si>
+  <si>
     <t>加速(主)</t>
   </si>
   <si>
+    <t>提升自身速度</t>
+  </si>
+  <si>
     <t>邻域(主)</t>
   </si>
   <si>
+    <t>【终极技能】放置一个[伏笔]，持有墨水的玩家接触[伏笔]会回收所有墨水</t>
+  </si>
+  <si>
     <t>箭(主)</t>
   </si>
   <si>
+    <t>【终极技能】向自身前进方向射出一只箭矢，箭矢会击杀所有非我方使魔</t>
+  </si>
+  <si>
     <t>吞噬(主)</t>
   </si>
   <si>
+    <t>【终极技能】吞噬所有我方使魔，提升自身速度并可直接伤害玩家</t>
+  </si>
+  <si>
     <t>墨水添加(主)</t>
   </si>
   <si>
+    <t>【终极技能】恢复一定墨水</t>
+  </si>
+  <si>
     <t>伏笔设置(主)</t>
   </si>
   <si>
     <t>伏笔回收(主)</t>
+  </si>
+  <si>
+    <t>回收伏笔</t>
+  </si>
+  <si>
+    <t>使使魔加速(主)</t>
+  </si>
+  <si>
+    <t>【魔法】使自己的使魔加速</t>
+  </si>
+  <si>
+    <t>召唤使魔(主)</t>
+  </si>
+  <si>
+    <t>【魔法】召唤一个属于自己的使魔</t>
   </si>
   <si>
     <r>
@@ -311,16 +326,19 @@
     <t>速度倍率</t>
   </si>
   <si>
+    <t>角色攻击力+2</t>
+  </si>
+  <si>
     <t>Character's ATK Increase</t>
   </si>
   <si>
-    <t>无敌</t>
+    <t>移动速度+0.2k/s</t>
   </si>
   <si>
     <t>Move Faster</t>
   </si>
   <si>
-    <t>无视改写</t>
+    <t>技能储存+1</t>
   </si>
   <si>
     <t>Skill Have Additional Times For Use</t>
@@ -329,69 +347,132 @@
     <t>回血</t>
   </si>
   <si>
+    <t>技能冷却-1</t>
+  </si>
+  <si>
     <t>Skill Cooldown Decrease 1 Sec</t>
   </si>
   <si>
     <t>回能</t>
   </si>
   <si>
+    <t>受伤后无敌+0.5s</t>
+  </si>
+  <si>
     <t>Invincible Time Longer After Damage</t>
   </si>
   <si>
     <t>回墨水</t>
   </si>
   <si>
+    <t>技能伤害倍率+50%</t>
+  </si>
+  <si>
     <t>Skills Take More Damage</t>
   </si>
   <si>
     <t>墨水消耗倍率</t>
   </si>
   <si>
+    <t>射击伤害倍率+20%</t>
+  </si>
+  <si>
     <t>Weapon Take More Damage</t>
   </si>
   <si>
     <t>基础速度</t>
   </si>
   <si>
+    <t>换弹时间*0.5</t>
+  </si>
+  <si>
     <t>Reloading Faster</t>
   </si>
   <si>
     <t>魔力倍率</t>
   </si>
   <si>
+    <t>击杀时间获取+1</t>
+  </si>
+  <si>
     <t>Kills Offer More Times</t>
   </si>
   <si>
     <t>The Method of Vision</t>
   </si>
   <si>
+    <t>视野缩放+20%</t>
+  </si>
+  <si>
     <t>Wider Vision</t>
   </si>
   <si>
     <t>使魔加速(被)</t>
   </si>
   <si>
+    <t>视野缩放+21%</t>
+  </si>
+  <si>
+    <t>视野更广</t>
+  </si>
+  <si>
     <t>改写获能提升(被)</t>
   </si>
   <si>
+    <t>视野缩放+22%</t>
+  </si>
+  <si>
+    <t>视野缩放+23%</t>
+  </si>
+  <si>
+    <t>视野缩放+24%</t>
+  </si>
+  <si>
     <t>改写邻域(主)</t>
   </si>
   <si>
+    <t>视野缩放+25%</t>
+  </si>
+  <si>
+    <t>视野缩放+26%</t>
+  </si>
+  <si>
+    <t>视野缩放+27%</t>
+  </si>
+  <si>
+    <t>视野缩放+28%</t>
+  </si>
+  <si>
     <t>箭改写</t>
   </si>
   <si>
+    <t>视野缩放+29%</t>
+  </si>
+  <si>
     <t>吞噬时是否改写</t>
   </si>
   <si>
+    <t>视野缩放+30%</t>
+  </si>
+  <si>
     <t>伏笔眩晕</t>
   </si>
   <si>
+    <t>视野缩放+31%</t>
+  </si>
+  <si>
     <t>伏笔可回收</t>
   </si>
   <si>
+    <t>视野缩放+32%</t>
+  </si>
+  <si>
     <t>吞噬状态</t>
   </si>
   <si>
+    <t>视野缩放+33%</t>
+  </si>
+  <si>
     <t>箭</t>
   </si>
   <si>
@@ -405,29 +486,19 @@
   </si>
   <si>
     <t>伏笔回收</t>
-  </si>
-  <si>
-    <t>图片序列</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>获能倍率(基)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使使魔加速(主)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤使魔(主)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,17 +513,148 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -460,31 +662,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -492,11 +865,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -519,34 +1134,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -804,19 +1448,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -824,47 +1468,47 @@
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="52.5" customWidth="1"/>
+    <col min="10" max="10" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -875,21 +1519,21 @@
         <v>11</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
         <v>80</v>
@@ -903,24 +1547,24 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3">
         <v>80</v>
@@ -940,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
@@ -951,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <v>80</v>
@@ -965,24 +1609,24 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
         <v>80</v>
@@ -996,24 +1640,24 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
         <v>80</v>
@@ -1027,24 +1671,24 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>
@@ -1058,24 +1702,24 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>80</v>
@@ -1089,24 +1733,24 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
         <v>80</v>
@@ -1120,24 +1764,24 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1151,24 +1795,24 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3">
         <v>80</v>
@@ -1182,24 +1826,24 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>117</v>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3">
         <v>80</v>
@@ -1213,24 +1857,24 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E14" s="3">
         <v>80</v>
@@ -1244,24 +1888,24 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3">
         <v>80</v>
@@ -1275,24 +1919,24 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E16" s="3">
         <v>80</v>
@@ -1312,18 +1956,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3">
         <v>80</v>
@@ -1337,27 +1981,27 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>80</v>
@@ -1371,24 +2015,24 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E19" s="3">
         <v>80</v>
@@ -1402,24 +2046,24 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3">
         <v>80</v>
@@ -1433,24 +2077,24 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3">
         <v>80</v>
@@ -1464,24 +2108,24 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E22" s="3">
         <v>80</v>
@@ -1495,24 +2139,24 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="K22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E23" s="3">
         <v>80</v>
@@ -1526,24 +2170,24 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="K23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3">
         <v>80</v>
@@ -1557,24 +2201,24 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="K24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3">
         <v>80</v>
@@ -1588,24 +2232,24 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E26" s="3">
         <v>80</v>
@@ -1617,24 +2261,24 @@
         <v>3</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>80</v>
@@ -1646,24 +2290,24 @@
         <v>3</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E28" s="3">
         <v>80</v>
@@ -1675,24 +2319,24 @@
         <v>3</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
@@ -1704,24 +2348,24 @@
         <v>3</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3">
         <v>80</v>
@@ -1733,24 +2377,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
@@ -1762,24 +2406,24 @@
         <v>3</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
@@ -1791,13 +2435,13 @@
         <v>3</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
@@ -1808,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
@@ -1820,24 +2464,24 @@
         <v>3</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E34" s="3">
         <v>20</v>
@@ -1849,24 +2493,24 @@
         <v>3</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E35" s="3">
         <v>10</v>
@@ -1878,24 +2522,24 @@
         <v>3</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="K35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3">
         <v>2</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3">
         <v>80</v>
@@ -1907,24 +2551,24 @@
         <v>3</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>3012</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>118</v>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="E37" s="3">
         <v>80</v>
@@ -1936,24 +2580,24 @@
         <v>3</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>3013</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>119</v>
+      <c r="B38" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E38" s="3">
         <v>80</v>
@@ -1965,7 +2609,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -1982,65 +2626,66 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="40.75" customWidth="1"/>
     <col min="10" max="10" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2048,24 +2693,24 @@
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2079,24 +2724,24 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2110,24 +2755,24 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2141,24 +2786,24 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2172,24 +2817,24 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -2203,24 +2848,24 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2234,24 +2879,24 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="7" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2265,24 +2910,24 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2296,24 +2941,24 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2327,24 +2972,24 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -2358,24 +3003,24 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2387,24 +3032,24 @@
         <v>3</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2416,24 +3061,24 @@
         <v>3</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2445,24 +3090,24 @@
         <v>3</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2474,24 +3119,24 @@
         <v>3</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2503,24 +3148,24 @@
         <v>3</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2532,24 +3177,24 @@
         <v>3</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2561,24 +3206,24 @@
         <v>3</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2590,24 +3235,24 @@
         <v>3</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2621,24 +3266,24 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2652,24 +3297,24 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2683,24 +3328,24 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2714,24 +3359,24 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2745,24 +3390,24 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2774,24 +3419,24 @@
         <v>3</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2803,24 +3448,24 @@
         <v>3</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -2832,24 +3477,24 @@
         <v>3</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2861,24 +3506,24 @@
         <v>3</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2890,24 +3535,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2919,24 +3564,24 @@
         <v>3</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2948,24 +3593,24 @@
         <v>3</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2977,24 +3622,24 @@
         <v>3</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3006,24 +3651,24 @@
         <v>3</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3035,24 +3680,24 @@
         <v>3</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -3064,24 +3709,24 @@
         <v>3</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>3012</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>118</v>
+      <c r="B37" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="E37" s="3">
         <v>80</v>
@@ -3093,24 +3738,24 @@
         <v>3</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>3013</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>119</v>
+      <c r="B38" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E38" s="3">
         <v>80</v>
@@ -3122,7 +3767,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3139,8 +3784,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonesnow\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity project\The_Story\Assets\Editor\BuffDataTool\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685F4B-5AC8-468A-8424-F05DBDA3A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660201CB-B42B-465D-B8A4-C65087F3269E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,13 +579,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,7 +866,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -881,43 +881,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1307,7 +1307,7 @@
       <c r="A15" s="3">
         <v>1013</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C15" s="3">
@@ -1970,7 +1970,7 @@
       <c r="A37" s="3">
         <v>3012</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C37" s="3">
@@ -2057,43 +2057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="8"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alonesnow\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685F4B-5AC8-468A-8424-F05DBDA3A91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="1785" windowWidth="21600" windowHeight="11865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -32,7 +26,7 @@
     <t>冷却</t>
   </si>
   <si>
-    <t>效果</t>
+    <t>备注</t>
   </si>
   <si>
     <t>初始能量</t>
@@ -62,7 +56,7 @@
     </r>
   </si>
   <si>
-    <t>武器限制</t>
+    <t>限制</t>
   </si>
   <si>
     <t>效果描述</t>
@@ -83,199 +77,199 @@
     <t>角色血量(基)</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>【被动】角色基础血量提升</t>
+  </si>
+  <si>
+    <t>角色血量倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】角色血量倍率提升</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>角色2</t>
+  </si>
+  <si>
+    <t>【被动】角色基础速度提升</t>
+  </si>
+  <si>
+    <t>角色速度倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】角色速度倍率提升</t>
+  </si>
+  <si>
+    <t>基础攻击(基)</t>
+  </si>
+  <si>
+    <t>【被动】基础攻击提升</t>
+  </si>
+  <si>
+    <t>攻击倍率(基)</t>
+  </si>
+  <si>
+    <t>【被动】基础攻击倍率更高</t>
+  </si>
+  <si>
+    <t>墨水上限(基)</t>
+  </si>
+  <si>
+    <t>【被动】墨水上限更高</t>
+  </si>
+  <si>
+    <t>墨水消耗(基)</t>
+  </si>
+  <si>
+    <t>【被动】改写使魔的消耗的降低</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>【被动】改写使魔所消耗的倍率降低</t>
+  </si>
+  <si>
+    <t>能量获取(基)</t>
+  </si>
+  <si>
+    <t>【被动】获得能量提升</t>
+  </si>
+  <si>
+    <t>角色1</t>
+  </si>
+  <si>
+    <t>【被动】获得能量倍率提升</t>
+  </si>
+  <si>
+    <t>无敌(基)</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>狂暴(基)</t>
+  </si>
+  <si>
+    <t>无视改写</t>
+  </si>
+  <si>
+    <t>【被动】属于自己的使魔基础速度提升</t>
+  </si>
+  <si>
+    <t>角色3</t>
+  </si>
+  <si>
+    <t>【被动】使用道具或发射箭矢时无敌3s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>角色4</t>
+  </si>
+  <si>
+    <t>【被动】处于改写状态下提升自己的使魔速度</t>
+  </si>
+  <si>
+    <t>角色5</t>
+  </si>
+  <si>
+    <t>【被动】获得墨水时恢复血量</t>
+  </si>
+  <si>
+    <t>【被动】获得墨水时恢复能量</t>
+  </si>
+  <si>
+    <t>【被动】箭矢不再击杀非我方使魔，而是改写他们</t>
+  </si>
+  <si>
+    <t>【被动】吞噬后视为拥有改写能力</t>
+  </si>
+  <si>
+    <t>角色6</t>
+  </si>
+  <si>
+    <t>【被动】[伏笔]触发时还可眩晕玩家3s</t>
+  </si>
+  <si>
+    <t>【被动】[伏笔]可被自身回收并回复所有能量</t>
+  </si>
+  <si>
+    <t>吞噬状态(被)</t>
+  </si>
+  <si>
+    <t>攻击，移动速度提升</t>
+  </si>
+  <si>
+    <t>回血(主)</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>【魔法】恢复一定生命值</t>
+  </si>
+  <si>
+    <t>回能(主)</t>
+  </si>
+  <si>
+    <t>获得一定能量</t>
+  </si>
+  <si>
+    <t>回墨水(主)</t>
+  </si>
+  <si>
+    <t>获得一定墨水</t>
+  </si>
+  <si>
+    <t>支配</t>
+  </si>
+  <si>
+    <t>【终极技能】使自己的使魔加速且无视玩家的改写能力进行攻击</t>
+  </si>
+  <si>
+    <t>加速(主)</t>
+  </si>
+  <si>
     <t>未说明</t>
   </si>
   <si>
-    <t>【被动】角色基础血量提升</t>
-  </si>
-  <si>
-    <t>角色血量倍率(基)</t>
-  </si>
-  <si>
-    <t>【被动】角色血量倍率提升</t>
-  </si>
-  <si>
-    <t>角色基础速度(基)</t>
-  </si>
-  <si>
-    <t>【被动】基础基础速度提升</t>
-  </si>
-  <si>
-    <t>角色速度倍率(基)</t>
-  </si>
-  <si>
-    <t>【被动】基础速度倍率提升</t>
-  </si>
-  <si>
-    <t>基础攻击(基)</t>
-  </si>
-  <si>
-    <t>【被动】基础攻击提升</t>
-  </si>
-  <si>
-    <t>攻击倍率(基)</t>
-  </si>
-  <si>
-    <t>【被动】基础攻击倍率更高</t>
-  </si>
-  <si>
-    <t>墨水上限(基)</t>
-  </si>
-  <si>
-    <t>【被动】墨水上限更高</t>
-  </si>
-  <si>
-    <t>墨水消耗(基)</t>
-  </si>
-  <si>
-    <t>【被动】改写使魔的消耗的降低</t>
-  </si>
-  <si>
-    <t>墨水消耗倍率(基)</t>
-  </si>
-  <si>
-    <t>【被动】改写使魔所消耗的倍率降低</t>
-  </si>
-  <si>
-    <t>能量获取(基)</t>
-  </si>
-  <si>
-    <t>【被动】获得能量提升</t>
-  </si>
-  <si>
-    <t>获能倍率(基)</t>
-  </si>
-  <si>
-    <t>【被动】获得能量倍率提升</t>
-  </si>
-  <si>
-    <t>无敌(基)</t>
-  </si>
-  <si>
-    <t>无敌</t>
-  </si>
-  <si>
-    <t>无视改写</t>
-  </si>
-  <si>
-    <t>使魔加速(基)</t>
-  </si>
-  <si>
-    <t>【被动】属于自己的使魔基础速度提升</t>
-  </si>
-  <si>
-    <t>使用道具技能无敌(基)</t>
-  </si>
-  <si>
-    <t>【被动】使用道具或发射箭矢时无敌3s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>拥有改写时使魔加速(基)</t>
-  </si>
-  <si>
-    <t>【被动】处于改写状态下提升自己的使魔速度</t>
-  </si>
-  <si>
-    <t>加墨时加血(基)</t>
-  </si>
-  <si>
-    <t>【被动】获得墨水时恢复血量</t>
-  </si>
-  <si>
-    <t>加墨时加能(基)</t>
-  </si>
-  <si>
-    <t>【被动】获得墨水时恢复能量</t>
-  </si>
-  <si>
-    <t>箭改写(被)</t>
-  </si>
-  <si>
-    <t>【被动】箭矢不再击杀非我方使魔，而是改写他们</t>
-  </si>
-  <si>
-    <t>吞噬时是否改写(被)</t>
-  </si>
-  <si>
-    <t>【被动】吞噬后视为拥有改写能力</t>
-  </si>
-  <si>
-    <t>伏笔眩晕(被)</t>
-  </si>
-  <si>
-    <t>【被动】[伏笔]触发时还可眩晕玩家3s</t>
-  </si>
-  <si>
-    <t>伏笔可回收(被)</t>
-  </si>
-  <si>
-    <t>【被动】[伏笔]可被自身回收并回复所有能量</t>
-  </si>
-  <si>
-    <t>吞噬状态(被)</t>
-  </si>
-  <si>
-    <t>攻击，移动速度提升</t>
-  </si>
-  <si>
-    <t>回血(主)</t>
-  </si>
-  <si>
-    <t>【魔法】恢复一定生命值</t>
-  </si>
-  <si>
-    <t>回能(主)</t>
-  </si>
-  <si>
-    <t>获得一定能量</t>
-  </si>
-  <si>
-    <t>回墨水(主)</t>
-  </si>
-  <si>
-    <t>获得一定墨水</t>
-  </si>
-  <si>
-    <t>使魔加速无视改写(主)</t>
-  </si>
-  <si>
-    <t>【终极技能】使自己的使魔加速且无视玩家的改写能力进行攻击</t>
-  </si>
-  <si>
-    <t>加速(主)</t>
-  </si>
-  <si>
     <t>提升自身速度</t>
   </si>
   <si>
-    <t>邻域(主)</t>
+    <t>邻域</t>
+  </si>
+  <si>
+    <t>【终极技能】展开一个领域自己获得的效果将对领域与领域内自身使魔生效</t>
+  </si>
+  <si>
+    <t>箭矢</t>
+  </si>
+  <si>
+    <t>【终极技能】向自身前进方向射出一只箭矢，箭矢会击杀所有非我方使魔</t>
+  </si>
+  <si>
+    <t>吞噬</t>
+  </si>
+  <si>
+    <t>【终极技能】吞噬所有我方使魔，提升自身速度并可直接伤害玩家</t>
+  </si>
+  <si>
+    <t>斟酌</t>
+  </si>
+  <si>
+    <t>【终极技能】恢复一定墨水</t>
+  </si>
+  <si>
+    <t>伏笔</t>
   </si>
   <si>
     <t>【终极技能】放置一个[伏笔]，持有墨水的玩家接触[伏笔]会回收所有墨水</t>
-  </si>
-  <si>
-    <t>箭(主)</t>
-  </si>
-  <si>
-    <t>【终极技能】向自身前进方向射出一只箭矢，箭矢会击杀所有非我方使魔</t>
-  </si>
-  <si>
-    <t>吞噬(主)</t>
-  </si>
-  <si>
-    <t>【终极技能】吞噬所有我方使魔，提升自身速度并可直接伤害玩家</t>
-  </si>
-  <si>
-    <t>墨水添加(主)</t>
-  </si>
-  <si>
-    <t>【终极技能】恢复一定墨水</t>
-  </si>
-  <si>
-    <t>伏笔设置(主)</t>
   </si>
   <si>
     <t>伏笔回收(主)</t>
@@ -317,12 +311,18 @@
     </r>
   </si>
   <si>
+    <t>效果</t>
+  </si>
+  <si>
     <t>标签</t>
   </si>
   <si>
     <t>权重</t>
   </si>
   <si>
+    <t>武器限制</t>
+  </si>
+  <si>
     <t>英文</t>
   </si>
   <si>
@@ -425,6 +425,9 @@
     <t>视野缩放+22%</t>
   </si>
   <si>
+    <t>使魔加速无视改写(主)</t>
+  </si>
+  <si>
     <t>视野缩放+23%</t>
   </si>
   <si>
@@ -476,12 +479,12 @@
     <t>视野缩放+33%</t>
   </si>
   <si>
+    <t>邻域(主)</t>
+  </si>
+  <si>
     <t>箭</t>
   </si>
   <si>
-    <t>吞噬</t>
-  </si>
-  <si>
     <t>墨水添加</t>
   </si>
   <si>
@@ -489,21 +492,19 @@
   </si>
   <si>
     <t>伏笔回收</t>
-  </si>
-  <si>
-    <t>狂暴(基)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>使使魔加速(主)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,36 +519,393 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="6"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CBF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -555,11 +913,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,27 +1179,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00F5CBF8"/>
+      <color rgb="00FFA9A9"/>
+      <color rgb="00FFD5D5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -857,19 +1520,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -880,44 +1543,44 @@
     <col min="10" max="10" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -931,7 +1594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
@@ -962,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
@@ -993,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
@@ -1003,8 +1666,8 @@
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E5" s="3">
         <v>80</v>
@@ -1018,18 +1681,18 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1049,18 +1712,18 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -1080,18 +1743,18 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -1111,18 +1774,18 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1142,18 +1805,18 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
@@ -1173,24 +1836,24 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
+      <c r="D11" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="3">
         <v>80</v>
@@ -1204,18 +1867,18 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1235,24 +1898,24 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E13" s="3">
         <v>80</v>
@@ -1266,18 +1929,18 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -1297,18 +1960,18 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -1328,24 +1991,24 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="3">
         <v>80</v>
@@ -1359,24 +2022,24 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
+      <c r="D17" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="3">
         <v>80</v>
@@ -1390,27 +2053,27 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="3">
         <v>80</v>
@@ -1424,24 +2087,24 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="3">
         <v>80</v>
@@ -1455,24 +2118,24 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
+      <c r="D20" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="3">
         <v>80</v>
@@ -1492,18 +2155,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
+      <c r="D21" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="3">
         <v>80</v>
@@ -1517,24 +2180,24 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>14</v>
+      <c r="D22" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="3">
         <v>80</v>
@@ -1548,24 +2211,24 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>14</v>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="3">
         <v>80</v>
@@ -1579,24 +2242,24 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>14</v>
+      <c r="D24" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="E24" s="3">
         <v>80</v>
@@ -1610,18 +2273,18 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1641,24 +2304,24 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3">
         <v>80</v>
@@ -1670,18 +2333,18 @@
         <v>3</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
@@ -1699,18 +2362,18 @@
         <v>3</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
@@ -1728,24 +2391,24 @@
         <v>3</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>14</v>
+      <c r="D29" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="3">
         <v>20</v>
@@ -1757,53 +2420,53 @@
         <v>3</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3">
+        <v>80</v>
+      </c>
+      <c r="F30" s="3">
+        <v>80</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3">
-        <v>2</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="3">
-        <v>80</v>
-      </c>
-      <c r="F30" s="3">
-        <v>80</v>
-      </c>
-      <c r="G30" s="3">
-        <v>3</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E31" s="3">
         <v>20</v>
@@ -1815,24 +2478,24 @@
         <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>14</v>
+      <c r="D32" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="E32" s="3">
         <v>10</v>
@@ -1844,24 +2507,24 @@
         <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>14</v>
+      <c r="D33" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E33" s="3">
         <v>10</v>
@@ -1873,24 +2536,24 @@
         <v>3</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>14</v>
+      <c r="D34" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="E34" s="3">
         <v>20</v>
@@ -1902,24 +2565,24 @@
         <v>3</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
+      <c r="D35" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="E35" s="3">
         <v>10</v>
@@ -1931,13 +2594,13 @@
         <v>3</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
@@ -1966,18 +2629,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>3012</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="C37" s="3">
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E37" s="3">
         <v>80</v>
@@ -1995,7 +2658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>3013</v>
       </c>
@@ -2006,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E38" s="3">
         <v>80</v>
@@ -2035,65 +2698,66 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="24.875" customWidth="1"/>
     <col min="4" max="4" width="40.75" customWidth="1"/>
     <col min="10" max="10" width="74.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7"/>
+      <c r="H1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="2"/>
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2101,24 +2765,24 @@
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -2132,24 +2796,24 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -2163,24 +2827,24 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>1003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2194,24 +2858,24 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>1004</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -2225,24 +2889,24 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>1005</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -2256,24 +2920,24 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>1006</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -2287,24 +2951,24 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>1007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -2318,24 +2982,24 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>1008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -2349,24 +3013,24 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>1009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -2380,24 +3044,24 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>1010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -2411,24 +3075,24 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>1011</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -2440,24 +3104,24 @@
         <v>3</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>1012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -2469,24 +3133,24 @@
         <v>3</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>1013</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -2498,24 +3162,24 @@
         <v>3</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>1014</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E16" s="3">
         <v>0</v>
@@ -2527,24 +3191,24 @@
         <v>3</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="3">
         <v>1015</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -2556,24 +3220,24 @@
         <v>3</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="3">
         <v>1016</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2585,24 +3249,24 @@
         <v>3</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K18">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3">
         <v>1017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -2614,24 +3278,24 @@
         <v>3</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K19">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3">
         <v>1018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -2643,24 +3307,24 @@
         <v>3</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="3">
         <v>2001</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -2674,24 +3338,24 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="3">
         <v>2002</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C22" s="3">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -2705,24 +3369,24 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="3">
         <v>2003</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3">
         <v>11</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -2736,24 +3400,24 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K23">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="3">
         <v>2004</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3">
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2767,24 +3431,24 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K24">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="3">
         <v>2005</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -2798,24 +3462,24 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="3">
         <v>3001</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2827,24 +3491,24 @@
         <v>3</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="3">
         <v>3002</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -2856,24 +3520,24 @@
         <v>3</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="3">
         <v>3003</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C28" s="3">
         <v>2</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -2885,24 +3549,24 @@
         <v>3</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="3">
         <v>3004</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2914,24 +3578,24 @@
         <v>3</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="3">
         <v>3005</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
@@ -2943,24 +3607,24 @@
         <v>3</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="3">
         <v>3006</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
@@ -2972,24 +3636,24 @@
         <v>3</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="3">
         <v>3007</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3">
         <v>4</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -3001,24 +3665,24 @@
         <v>3</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="3">
         <v>3008</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3">
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -3030,24 +3694,24 @@
         <v>3</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="3">
         <v>3009</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C34" s="3">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
@@ -3059,24 +3723,24 @@
         <v>3</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="3">
         <v>3010</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C35" s="3">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -3088,24 +3752,24 @@
         <v>3</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="3">
         <v>3011</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
@@ -3117,13 +3781,13 @@
         <v>3</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="3">
         <v>3012</v>
       </c>
@@ -3134,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E37" s="3">
         <v>80</v>
@@ -3146,13 +3810,13 @@
         <v>3</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="3">
         <v>3013</v>
       </c>
@@ -3163,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E38" s="3">
         <v>80</v>
@@ -3175,7 +3839,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3192,8 +3856,8 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
+++ b/Assets/Editor/BuffDataTool/Data/buff配置表0408.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -322,6 +322,39 @@
   <si>
     <t>浅水区</t>
   </si>
+  <si>
+    <t>深水区</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>魔力水域</t>
+  </si>
+  <si>
+    <t>熔岩</t>
+  </si>
+  <si>
+    <t>树丛</t>
+  </si>
+  <si>
+    <t>毒雾</t>
+  </si>
+  <si>
+    <t>荆棘</t>
+  </si>
+  <si>
+    <t>治疗云雾</t>
+  </si>
+  <si>
+    <t>魔法树丛</t>
+  </si>
+  <si>
+    <t>纸箱</t>
+  </si>
+  <si>
+    <t>纸上的洞</t>
+  </si>
 </sst>
 </file>
 
@@ -333,7 +366,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,13 +379,6 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -829,137 +855,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,13 +999,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2613,7 +2636,7 @@
       <c r="A48" s="4">
         <v>4001</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="4">
@@ -2638,9 +2661,323 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>5001</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="4">
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="4">
+        <v>80</v>
+      </c>
+      <c r="F50" s="4">
+        <v>80</v>
+      </c>
+      <c r="G50" s="4">
+        <v>3</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="4">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4">
+        <v>80</v>
+      </c>
+      <c r="F51" s="4">
+        <v>80</v>
+      </c>
+      <c r="G51" s="4">
+        <v>3</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="4">
+        <v>80</v>
+      </c>
+      <c r="F52" s="4">
+        <v>80</v>
+      </c>
+      <c r="G52" s="4">
+        <v>3</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="4">
+        <v>80</v>
+      </c>
+      <c r="F53" s="4">
+        <v>80</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="4">
+        <v>80</v>
+      </c>
+      <c r="F54" s="4">
+        <v>80</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="4">
+        <v>80</v>
+      </c>
+      <c r="F55" s="4">
+        <v>80</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="4">
+        <v>80</v>
+      </c>
+      <c r="F56" s="4">
+        <v>80</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="4">
+        <v>80</v>
+      </c>
+      <c r="F57" s="4">
+        <v>80</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="4">
+        <v>2</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="4">
+        <v>80</v>
+      </c>
+      <c r="F58" s="4">
+        <v>80</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="4">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="4">
+        <v>80</v>
+      </c>
+      <c r="F59" s="4">
+        <v>80</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>5011</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="4">
+        <v>2</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="4">
+        <v>80</v>
+      </c>
+      <c r="F60" s="4">
+        <v>80</v>
+      </c>
+      <c r="G60" s="4">
+        <v>3</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
